--- a/weekly_excels/week05_07_Butler.xlsx
+++ b/weekly_excels/week05_07_Butler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdemirtas\Desktop\yeditepe\github\weekly_excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41803330-282A-4DF1-8215-AB28B99D6149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C2E44-8736-4EFF-AA9C-7B99E662EE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21924" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="error" sheetId="1" r:id="rId1"/>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1962,7 +1962,7 @@
         <v>0.13478260869565251</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F14" si="2">E3*E3</f>
+        <f t="shared" ref="F3:F11" si="2">E3*E3</f>
         <v>1.8166351606805381E-2</v>
       </c>
       <c r="H3">
@@ -1970,7 +1970,7 @@
         <v>-1.9000000000000004</v>
       </c>
       <c r="I3" s="8">
-        <f t="shared" ref="I3:I13" si="4">H3*H3</f>
+        <f t="shared" ref="I3:I11" si="4">H3*H3</f>
         <v>3.6100000000000012</v>
       </c>
     </row>
